--- a/ObjectOrientedProgramming/WinApp.InventoryWMS/INVENTORY.WinApp/bin/Release/BAOCAO/EXCEL/BM_NhapXuatTongHop.xlsx
+++ b/ObjectOrientedProgramming/WinApp.InventoryWMS/INVENTORY.WinApp/bin/Release/BAOCAO/EXCEL/BM_NhapXuatTongHop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\MTInventoryTinhBotSan\Code\MTIMS.WinApp\BAOCAO\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\MTWarehouseOOP\INVENTORY.WinApp\BAOCAO\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,6 +43,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -187,12 +190,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,6 +199,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -220,14 +226,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +520,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
@@ -525,67 +528,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="6"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="6"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -594,68 +597,68 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="6"/>
     </row>
     <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
